--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\RHPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\hydgn\RHPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AD650-2600-4FD9-8DF7-DB8CE20BF1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5233D3-D50D-415B-B83D-911433F3D559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59790" yWindow="1965" windowWidth="22245" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RHPF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -423,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -495,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,7 +548,8 @@
         <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <f>0.051/0.2092/0.795</f>
+        <v>0.30664886900681843</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -667,7 +679,8 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <f>1-B2-B8</f>
+        <v>0.38670226198636315</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -693,7 +706,8 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <f>0.051/0.2092/0.795</f>
+        <v>0.30664886900681843</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
